--- a/output_test/Classifier_test-case_unistroi.xlsx
+++ b/output_test/Classifier_test-case_unistroi.xlsx
@@ -2788,11 +2788,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Фасадная Материалы</t>
+          <t>Щитовое оборудование Материалы</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3548,11 +3548,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Кирпич</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Щитовое оборудование Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Щитовое оборудование Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Щитовое оборудование Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
+          <t>Лестничные марши и площадки железобетонные Материалы</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Фасадная Материалы</t>
+          <t>Кирпич</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Плиты перекрытия железобетонные пустотные Материалы</t>
+          <t>Фасадная Материалы</t>
         </is>
       </c>
       <c r="D271" t="n">

--- a/output_test/Classifier_test-case_unistroi.xlsx
+++ b/output_test/Classifier_test-case_unistroi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo-ml\output_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B81AC5-8279-4E6E-AF0C-7F389E60FEB9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725489E2-F616-49DF-A784-F119FA2AD6AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1370,11 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1425,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2055,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2167,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -2265,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -2517,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -2671,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -2727,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -2867,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -2923,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>148</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -3385,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -3539,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>179</v>
       </c>
@@ -3721,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>185</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>190</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>205</v>
       </c>
@@ -4057,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>206</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>207</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>208</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>251</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>257</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>271</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>286</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>302</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>303</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>304</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>305</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>306</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>309</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>310</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>318</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>319</v>
       </c>
@@ -5752,13 +5751,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D312" xr:uid="{900DC53B-543E-4F40-984C-A919EEC2118A}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D312" xr:uid="{900DC53B-543E-4F40-984C-A919EEC2118A}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
